--- a/Data/Transitions/19221923Translation.xlsx
+++ b/Data/Transitions/19221923Translation.xlsx
@@ -61,7 +61,7 @@
     <t>{13.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9690755208333334}</t>
+    <t>{14.0: 0.9691257718557036}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -334,7 +334,7 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 1.0, 502.0: 0.1790910723908748}</t>
+    <t>{174.0: 1.0, 502.0: 0.18068140630663285}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -346,7 +346,7 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 1.0, 14.0: 0.030924479166666668}</t>
+    <t>{178.0: 1.0, 14.0: 0.03087422814429639}</t>
   </si>
   <si>
     <t>{179.0: 1.0}</t>
@@ -406,7 +406,7 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.25196850393700787}</t>
+    <t>{897.0: 0.25139664804469275}</t>
   </si>
   <si>
     <t>{217.0: 1.0}</t>
@@ -475,6 +475,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -490,13 +493,13 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9929750223015165}</t>
+    <t>{249.0: 0.9929308797127468}</t>
   </si>
   <si>
     <t>{250.0: 1.0}</t>
   </si>
   <si>
-    <t>{251.0: 0.5544624033731553}</t>
+    <t>{251.0: 0.568021803315921}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
@@ -535,7 +538,7 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 1.0, 843.0: 0.06314330958036421}</t>
+    <t>{264.0: 1.0, 843.0: 0.06454876568191016}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -598,7 +601,7 @@
     <t>{288.0: 1.0}</t>
   </si>
   <si>
-    <t>{289.0: 1.0, 730.0: 0.046404895461499236}</t>
+    <t>{289.0: 1.0, 730.0: 0.047420531526836895}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
@@ -688,9 +691,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -790,7 +790,7 @@
     <t>{433.0: 1.0}</t>
   </si>
   <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -877,7 +877,7 @@
     <t>{494.0: 1.0}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
@@ -892,13 +892,13 @@
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{500.0: 0.8108108108108109}</t>
+    <t>{500.0: 0.8075521695925804}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.8209089276091251}</t>
+    <t>{502.0: 0.8193185936933671}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -1024,7 +1024,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 1.0, 434.0: 0.019332161687170474}</t>
+    <t>{585.0: 1.0, 434.0: 0.017354719957927953}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1156,7 +1156,7 @@
     <t>{631.0: 1.0}</t>
   </si>
   <si>
-    <t>{251.0: 0.44553759662684467}</t>
+    <t>{251.0: 0.43197819668407905}</t>
   </si>
   <si>
     <t>{633.0: 1.0}</t>
@@ -1258,7 +1258,7 @@
     <t>{729.0: 1.0}</t>
   </si>
   <si>
-    <t>{730.0: 0.9535951045385007}</t>
+    <t>{730.0: 0.9525794684731631}</t>
   </si>
   <si>
     <t>{731.0: 1.0}</t>
@@ -1420,7 +1420,7 @@
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{500.0: 0.1891891891891892}</t>
+    <t>{500.0: 0.19244783040741967}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
@@ -1465,7 +1465,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{843.0: 0.9368566904196358}</t>
+    <t>{843.0: 0.9354512343180899}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1558,10 +1558,10 @@
     <t>{895.0: 1.0}</t>
   </si>
   <si>
-    <t>{896.0: 1.0, 897.0: 0.025430154564012833}</t>
-  </si>
-  <si>
-    <t>{897.0: 0.7226013414989793}</t>
+    <t>{896.0: 1.0, 897.0: 0.02537243947858473}</t>
+  </si>
+  <si>
+    <t>{897.0: 0.7232309124767226}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1702,7 +1702,7 @@
     <t>{981.0: 1.0}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.007024977698483497, 495.0: 0.06982248520710059}</t>
+    <t>{989.0: 1.0, 249.0: 0.007069120287253142, 495.0: 0.07077735124760076}</t>
   </si>
   <si>
     <t>{990.0: 1.0}</t>
@@ -1720,7 +1720,7 @@
     <t>{14.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.6048355132778438, 502.0: 0.39516448672215615}</t>
+    <t>{174.0: 0.607325718786924, 502.0: 0.392674281213076}</t>
   </si>
   <si>
     <t>{178.0: 0.9924042536179739, 14.0: 0.007595746382026066}</t>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3825,7 +3825,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3847,51 +3847,51 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>571</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>571</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>572</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>161</v>
+        <v>572</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4012,29 +4012,29 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>573</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>174</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4243,29 +4243,29 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>574</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>195</v>
+        <v>574</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
